--- a/data/auffrischen_monat_bl.xlsx
+++ b/data/auffrischen_monat_bl.xlsx
@@ -449,19 +449,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>544055</v>
+        <v>817753</v>
       </c>
       <c r="C2" t="n">
-        <v>277893</v>
+        <v>330256</v>
       </c>
       <c r="D2" t="n">
-        <v>266162</v>
+        <v>487497</v>
       </c>
       <c r="E2" t="n">
-        <v>0.489218920881161</v>
+        <v>0.596142111371037</v>
       </c>
       <c r="F2" t="n">
-        <v>539860</v>
+        <v>761195</v>
       </c>
       <c r="G2" t="n">
         <v>1162220</v>
@@ -475,19 +475,19 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>716448</v>
+        <v>942807</v>
       </c>
       <c r="C3" t="n">
-        <v>302358</v>
+        <v>392641</v>
       </c>
       <c r="D3" t="n">
-        <v>414090</v>
+        <v>550166</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5779763499933</v>
+        <v>0.583540427680321</v>
       </c>
       <c r="F3" t="n">
-        <v>640449</v>
+        <v>776525</v>
       </c>
       <c r="G3" t="n">
         <v>1415299</v>
@@ -501,19 +501,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>208002</v>
+        <v>340093</v>
       </c>
       <c r="C4" t="n">
-        <v>156431</v>
+        <v>202505</v>
       </c>
       <c r="D4" t="n">
-        <v>51571</v>
+        <v>137588</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2479351160085</v>
+        <v>0.404559929195838</v>
       </c>
       <c r="F4" t="n">
-        <v>183662</v>
+        <v>269679</v>
       </c>
       <c r="G4" t="n">
         <v>317244</v>
@@ -527,19 +527,19 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>101434</v>
+        <v>180985</v>
       </c>
       <c r="C5" t="n">
-        <v>38181</v>
+        <v>56734</v>
       </c>
       <c r="D5" t="n">
-        <v>63253</v>
+        <v>124251</v>
       </c>
       <c r="E5" t="n">
-        <v>0.623587751641461</v>
+        <v>0.686526507721634</v>
       </c>
       <c r="F5" t="n">
-        <v>142804</v>
+        <v>203802</v>
       </c>
       <c r="G5" t="n">
         <v>280683</v>
@@ -553,19 +553,19 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>35857</v>
+        <v>60345</v>
       </c>
       <c r="C6" t="n">
-        <v>23974</v>
+        <v>33894</v>
       </c>
       <c r="D6" t="n">
-        <v>11883</v>
+        <v>26451</v>
       </c>
       <c r="E6" t="n">
-        <v>0.331399726692138</v>
+        <v>0.438329604772558</v>
       </c>
       <c r="F6" t="n">
-        <v>36371</v>
+        <v>50939</v>
       </c>
       <c r="G6" t="n">
         <v>88491</v>
@@ -579,19 +579,19 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>4152414</v>
+        <v>6381397</v>
       </c>
       <c r="C7" t="n">
-        <v>2049762</v>
+        <v>2726180</v>
       </c>
       <c r="D7" t="n">
-        <v>2102652</v>
+        <v>3655217</v>
       </c>
       <c r="E7" t="n">
-        <v>0.506368584635347</v>
+        <v>0.572792603249727</v>
       </c>
       <c r="F7" t="n">
-        <v>4331635</v>
+        <v>5884200</v>
       </c>
       <c r="G7" t="n">
         <v>8628573</v>
@@ -605,19 +605,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>91010</v>
+        <v>124367</v>
       </c>
       <c r="C8" t="n">
-        <v>42015</v>
+        <v>61217</v>
       </c>
       <c r="D8" t="n">
-        <v>48995</v>
+        <v>63150</v>
       </c>
       <c r="E8" t="n">
-        <v>0.538347434347874</v>
+        <v>0.507771354137352</v>
       </c>
       <c r="F8" t="n">
-        <v>82352</v>
+        <v>96507</v>
       </c>
       <c r="G8" t="n">
         <v>201198</v>
@@ -631,19 +631,19 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>331081</v>
+        <v>482768</v>
       </c>
       <c r="C9" t="n">
-        <v>144846</v>
+        <v>197785</v>
       </c>
       <c r="D9" t="n">
-        <v>186235</v>
+        <v>284983</v>
       </c>
       <c r="E9" t="n">
-        <v>0.562505852042249</v>
+        <v>0.590310459682498</v>
       </c>
       <c r="F9" t="n">
-        <v>337922</v>
+        <v>436670</v>
       </c>
       <c r="G9" t="n">
         <v>531886</v>
@@ -657,19 +657,19 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>75589</v>
+        <v>109955</v>
       </c>
       <c r="C10" t="n">
-        <v>30703</v>
+        <v>42694</v>
       </c>
       <c r="D10" t="n">
-        <v>44886</v>
+        <v>67261</v>
       </c>
       <c r="E10" t="n">
-        <v>0.593816560610671</v>
+        <v>0.611713882952117</v>
       </c>
       <c r="F10" t="n">
-        <v>79252</v>
+        <v>101627</v>
       </c>
       <c r="G10" t="n">
         <v>179500</v>
@@ -683,19 +683,19 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>408173</v>
+        <v>546629</v>
       </c>
       <c r="C11" t="n">
-        <v>153212</v>
+        <v>239280</v>
       </c>
       <c r="D11" t="n">
-        <v>254961</v>
+        <v>307349</v>
       </c>
       <c r="E11" t="n">
-        <v>0.624639552346677</v>
+        <v>0.562262521746925</v>
       </c>
       <c r="F11" t="n">
-        <v>393417</v>
+        <v>445805</v>
       </c>
       <c r="G11" t="n">
         <v>756649</v>
@@ -709,19 +709,19 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>826118</v>
+        <v>1329581</v>
       </c>
       <c r="C12" t="n">
-        <v>494203</v>
+        <v>637796</v>
       </c>
       <c r="D12" t="n">
-        <v>331915</v>
+        <v>691785</v>
       </c>
       <c r="E12" t="n">
-        <v>0.401776743758156</v>
+        <v>0.520303012753642</v>
       </c>
       <c r="F12" t="n">
-        <v>835378</v>
+        <v>1195248</v>
       </c>
       <c r="G12" t="n">
         <v>1846917</v>
@@ -735,19 +735,19 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>182576</v>
+        <v>331344</v>
       </c>
       <c r="C13" t="n">
-        <v>107768</v>
+        <v>138914</v>
       </c>
       <c r="D13" t="n">
-        <v>74808</v>
+        <v>192430</v>
       </c>
       <c r="E13" t="n">
-        <v>0.409736219437385</v>
+        <v>0.580755951518663</v>
       </c>
       <c r="F13" t="n">
-        <v>223576</v>
+        <v>341198</v>
       </c>
       <c r="G13" t="n">
         <v>458664</v>
@@ -761,19 +761,19 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>47003</v>
+        <v>84647</v>
       </c>
       <c r="C14" t="n">
-        <v>23141</v>
+        <v>31829</v>
       </c>
       <c r="D14" t="n">
-        <v>23862</v>
+        <v>52818</v>
       </c>
       <c r="E14" t="n">
-        <v>0.507669723209157</v>
+        <v>0.623979585809302</v>
       </c>
       <c r="F14" t="n">
-        <v>61506</v>
+        <v>90462</v>
       </c>
       <c r="G14" t="n">
         <v>124216</v>
@@ -787,19 +787,19 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>248526</v>
+        <v>397440</v>
       </c>
       <c r="C15" t="n">
-        <v>51857</v>
+        <v>85101</v>
       </c>
       <c r="D15" t="n">
-        <v>196669</v>
+        <v>312339</v>
       </c>
       <c r="E15" t="n">
-        <v>0.791341750963682</v>
+        <v>0.78587711352657</v>
       </c>
       <c r="F15" t="n">
-        <v>345583</v>
+        <v>461253</v>
       </c>
       <c r="G15" t="n">
         <v>467783</v>
@@ -813,19 +813,19 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>99400</v>
+        <v>156280</v>
       </c>
       <c r="C16" t="n">
-        <v>43650</v>
+        <v>58658</v>
       </c>
       <c r="D16" t="n">
-        <v>55750</v>
+        <v>97622</v>
       </c>
       <c r="E16" t="n">
-        <v>0.560865191146881</v>
+        <v>0.624660865113898</v>
       </c>
       <c r="F16" t="n">
-        <v>112630</v>
+        <v>154502</v>
       </c>
       <c r="G16" t="n">
         <v>231362</v>
@@ -839,19 +839,19 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>116154</v>
+        <v>239140</v>
       </c>
       <c r="C17" t="n">
-        <v>106390</v>
+        <v>135820</v>
       </c>
       <c r="D17" t="n">
-        <v>9764</v>
+        <v>103320</v>
       </c>
       <c r="E17" t="n">
-        <v>0.084060815813489</v>
+        <v>0.43204817261855</v>
       </c>
       <c r="F17" t="n">
-        <v>132750</v>
+        <v>226306</v>
       </c>
       <c r="G17" t="n">
         <v>341139</v>
@@ -865,19 +865,19 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>122617</v>
+        <v>234664</v>
       </c>
       <c r="C18" t="n">
-        <v>52467</v>
+        <v>80160</v>
       </c>
       <c r="D18" t="n">
-        <v>70150</v>
+        <v>154504</v>
       </c>
       <c r="E18" t="n">
-        <v>0.572106641004102</v>
+        <v>0.658405209150104</v>
       </c>
       <c r="F18" t="n">
-        <v>182197</v>
+        <v>266551</v>
       </c>
       <c r="G18" t="n">
         <v>186033</v>

--- a/data/auffrischen_monat_bl.xlsx
+++ b/data/auffrischen_monat_bl.xlsx
@@ -452,16 +452,16 @@
         <v>817753</v>
       </c>
       <c r="C2" t="n">
-        <v>330256</v>
+        <v>384135</v>
       </c>
       <c r="D2" t="n">
-        <v>487497</v>
+        <v>433618</v>
       </c>
       <c r="E2" t="n">
-        <v>0.596142111371037</v>
+        <v>0.530255468338239</v>
       </c>
       <c r="F2" t="n">
-        <v>761195</v>
+        <v>707316</v>
       </c>
       <c r="G2" t="n">
         <v>1162220</v>
@@ -478,16 +478,16 @@
         <v>942807</v>
       </c>
       <c r="C3" t="n">
-        <v>392641</v>
+        <v>484787</v>
       </c>
       <c r="D3" t="n">
-        <v>550166</v>
+        <v>458020</v>
       </c>
       <c r="E3" t="n">
-        <v>0.583540427680321</v>
+        <v>0.485804623851965</v>
       </c>
       <c r="F3" t="n">
-        <v>776525</v>
+        <v>684379</v>
       </c>
       <c r="G3" t="n">
         <v>1415299</v>
@@ -504,16 +504,16 @@
         <v>340093</v>
       </c>
       <c r="C4" t="n">
-        <v>202505</v>
+        <v>232779</v>
       </c>
       <c r="D4" t="n">
-        <v>137588</v>
+        <v>107314</v>
       </c>
       <c r="E4" t="n">
-        <v>0.404559929195838</v>
+        <v>0.315543101445781</v>
       </c>
       <c r="F4" t="n">
-        <v>269679</v>
+        <v>239405</v>
       </c>
       <c r="G4" t="n">
         <v>317244</v>
@@ -530,16 +530,16 @@
         <v>180985</v>
       </c>
       <c r="C5" t="n">
-        <v>56734</v>
+        <v>72429</v>
       </c>
       <c r="D5" t="n">
-        <v>124251</v>
+        <v>108556</v>
       </c>
       <c r="E5" t="n">
-        <v>0.686526507721634</v>
+        <v>0.599806613807774</v>
       </c>
       <c r="F5" t="n">
-        <v>203802</v>
+        <v>188107</v>
       </c>
       <c r="G5" t="n">
         <v>280683</v>
@@ -556,16 +556,16 @@
         <v>60345</v>
       </c>
       <c r="C6" t="n">
-        <v>33894</v>
+        <v>40559</v>
       </c>
       <c r="D6" t="n">
-        <v>26451</v>
+        <v>19786</v>
       </c>
       <c r="E6" t="n">
-        <v>0.438329604772558</v>
+        <v>0.327881348910432</v>
       </c>
       <c r="F6" t="n">
-        <v>50939</v>
+        <v>44274</v>
       </c>
       <c r="G6" t="n">
         <v>88491</v>
@@ -582,16 +582,16 @@
         <v>6381397</v>
       </c>
       <c r="C7" t="n">
-        <v>2726180</v>
+        <v>3300010</v>
       </c>
       <c r="D7" t="n">
-        <v>3655217</v>
+        <v>3081387</v>
       </c>
       <c r="E7" t="n">
-        <v>0.572792603249727</v>
+        <v>0.482870286866653</v>
       </c>
       <c r="F7" t="n">
-        <v>5884200</v>
+        <v>5310370</v>
       </c>
       <c r="G7" t="n">
         <v>8628573</v>
@@ -608,16 +608,16 @@
         <v>124367</v>
       </c>
       <c r="C8" t="n">
-        <v>61217</v>
+        <v>72832</v>
       </c>
       <c r="D8" t="n">
-        <v>63150</v>
+        <v>51535</v>
       </c>
       <c r="E8" t="n">
-        <v>0.507771354137352</v>
+        <v>0.414378412279785</v>
       </c>
       <c r="F8" t="n">
-        <v>96507</v>
+        <v>84892</v>
       </c>
       <c r="G8" t="n">
         <v>201198</v>
@@ -634,16 +634,16 @@
         <v>482768</v>
       </c>
       <c r="C9" t="n">
-        <v>197785</v>
+        <v>236028</v>
       </c>
       <c r="D9" t="n">
-        <v>284983</v>
+        <v>246740</v>
       </c>
       <c r="E9" t="n">
-        <v>0.590310459682498</v>
+        <v>0.511094355881086</v>
       </c>
       <c r="F9" t="n">
-        <v>436670</v>
+        <v>398427</v>
       </c>
       <c r="G9" t="n">
         <v>531886</v>
@@ -660,16 +660,16 @@
         <v>109955</v>
       </c>
       <c r="C10" t="n">
-        <v>42694</v>
+        <v>52923</v>
       </c>
       <c r="D10" t="n">
-        <v>67261</v>
+        <v>57032</v>
       </c>
       <c r="E10" t="n">
-        <v>0.611713882952117</v>
+        <v>0.518684916556773</v>
       </c>
       <c r="F10" t="n">
-        <v>101627</v>
+        <v>91398</v>
       </c>
       <c r="G10" t="n">
         <v>179500</v>
@@ -686,16 +686,16 @@
         <v>546629</v>
       </c>
       <c r="C11" t="n">
-        <v>239280</v>
+        <v>299984</v>
       </c>
       <c r="D11" t="n">
-        <v>307349</v>
+        <v>246645</v>
       </c>
       <c r="E11" t="n">
-        <v>0.562262521746925</v>
+        <v>0.451210967584962</v>
       </c>
       <c r="F11" t="n">
-        <v>445805</v>
+        <v>385101</v>
       </c>
       <c r="G11" t="n">
         <v>756649</v>
@@ -712,16 +712,16 @@
         <v>1329581</v>
       </c>
       <c r="C12" t="n">
-        <v>637796</v>
+        <v>772974</v>
       </c>
       <c r="D12" t="n">
-        <v>691785</v>
+        <v>556607</v>
       </c>
       <c r="E12" t="n">
-        <v>0.520303012753642</v>
+        <v>0.418633389015036</v>
       </c>
       <c r="F12" t="n">
-        <v>1195248</v>
+        <v>1060070</v>
       </c>
       <c r="G12" t="n">
         <v>1846917</v>
@@ -738,16 +738,16 @@
         <v>331344</v>
       </c>
       <c r="C13" t="n">
-        <v>138914</v>
+        <v>166128</v>
       </c>
       <c r="D13" t="n">
-        <v>192430</v>
+        <v>165216</v>
       </c>
       <c r="E13" t="n">
-        <v>0.580755951518663</v>
+        <v>0.49862378675938</v>
       </c>
       <c r="F13" t="n">
-        <v>341198</v>
+        <v>313984</v>
       </c>
       <c r="G13" t="n">
         <v>458664</v>
@@ -764,16 +764,16 @@
         <v>84647</v>
       </c>
       <c r="C14" t="n">
-        <v>31829</v>
+        <v>40954</v>
       </c>
       <c r="D14" t="n">
-        <v>52818</v>
+        <v>43693</v>
       </c>
       <c r="E14" t="n">
-        <v>0.623979585809302</v>
+        <v>0.516178954954103</v>
       </c>
       <c r="F14" t="n">
-        <v>90462</v>
+        <v>81337</v>
       </c>
       <c r="G14" t="n">
         <v>124216</v>
@@ -790,16 +790,16 @@
         <v>397440</v>
       </c>
       <c r="C15" t="n">
-        <v>85101</v>
+        <v>113485</v>
       </c>
       <c r="D15" t="n">
-        <v>312339</v>
+        <v>283955</v>
       </c>
       <c r="E15" t="n">
-        <v>0.78587711352657</v>
+        <v>0.714460044283414</v>
       </c>
       <c r="F15" t="n">
-        <v>461253</v>
+        <v>432869</v>
       </c>
       <c r="G15" t="n">
         <v>467783</v>
@@ -816,16 +816,16 @@
         <v>156280</v>
       </c>
       <c r="C16" t="n">
-        <v>58658</v>
+        <v>71769</v>
       </c>
       <c r="D16" t="n">
-        <v>97622</v>
+        <v>84511</v>
       </c>
       <c r="E16" t="n">
-        <v>0.624660865113898</v>
+        <v>0.540766572818019</v>
       </c>
       <c r="F16" t="n">
-        <v>154502</v>
+        <v>141391</v>
       </c>
       <c r="G16" t="n">
         <v>231362</v>
@@ -842,16 +842,16 @@
         <v>239140</v>
       </c>
       <c r="C17" t="n">
-        <v>135820</v>
+        <v>157896</v>
       </c>
       <c r="D17" t="n">
-        <v>103320</v>
+        <v>81244</v>
       </c>
       <c r="E17" t="n">
-        <v>0.43204817261855</v>
+        <v>0.339734047001756</v>
       </c>
       <c r="F17" t="n">
-        <v>226306</v>
+        <v>204230</v>
       </c>
       <c r="G17" t="n">
         <v>341139</v>
@@ -868,16 +868,16 @@
         <v>234664</v>
       </c>
       <c r="C18" t="n">
-        <v>80160</v>
+        <v>99160</v>
       </c>
       <c r="D18" t="n">
-        <v>154504</v>
+        <v>135504</v>
       </c>
       <c r="E18" t="n">
-        <v>0.658405209150104</v>
+        <v>0.577438379981591</v>
       </c>
       <c r="F18" t="n">
-        <v>266551</v>
+        <v>247551</v>
       </c>
       <c r="G18" t="n">
         <v>186033</v>
